--- a/intial cost model.xlsx
+++ b/intial cost model.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\New folder\CET311-Project Management\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>INITIAL COST MODEL</t>
   </si>
@@ -35,9 +35,6 @@
     <t>ITEM NUMBER</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>FIXTURES AND FITTINGS</t>
   </si>
   <si>
@@ -116,13 +113,73 @@
     <t xml:space="preserve">          </t>
   </si>
   <si>
-    <t>UNIT PRICE()</t>
-  </si>
-  <si>
     <t>SUB TOTAL</t>
   </si>
   <si>
     <t>Monitor</t>
+  </si>
+  <si>
+    <t>SUB TOTAL MATERIALS</t>
+  </si>
+  <si>
+    <t>CONTRACTORS</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>Air conditioning installer</t>
+  </si>
+  <si>
+    <t>Telecommunications Technicians</t>
+  </si>
+  <si>
+    <t>Network Engineer</t>
+  </si>
+  <si>
+    <t>Network Administrator</t>
+  </si>
+  <si>
+    <t>Software Installer</t>
+  </si>
+  <si>
+    <t>IT Technician</t>
+  </si>
+  <si>
+    <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t>PAYMENT(£)</t>
+  </si>
+  <si>
+    <t>TOTAL(£)</t>
+  </si>
+  <si>
+    <t>UNIT PRICE(£)</t>
+  </si>
+  <si>
+    <t>Server Specialist</t>
+  </si>
+  <si>
+    <t>SUB TOTAL CONTRACTS</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>CLIENT WORK</t>
+  </si>
+  <si>
+    <t>COST(£)</t>
+  </si>
+  <si>
+    <t>Agreement of plan</t>
+  </si>
+  <si>
+    <t>Cost/Schedule Control</t>
   </si>
 </sst>
 </file>
@@ -154,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,11 +234,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -195,26 +304,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,424 +680,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <f>(B4*C4)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D28" si="0">(B5*C5)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>2000</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(B7*C7)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:D31" si="0">(B8*C8)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C10" s="1">
         <v>1500</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2">
-        <f>(D4+D5+D6+D7)</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
+        <f>(D7+D8+D9+D10)</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C14" s="1">
         <v>400</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>950</v>
+      </c>
+      <c r="D16" s="1">
+        <f>(B16*C16)</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>850</v>
-      </c>
-      <c r="D13" s="1">
-        <f>(B13*C13)</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C17" s="1">
         <v>250</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C18" s="1">
         <v>450</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>140</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <v>120</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C20" s="1">
         <v>630</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>1890</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C21" s="1">
         <v>730</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>1460</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C22" s="1">
         <v>590</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>2360</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C23" s="1">
         <v>150</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C24" s="1">
         <v>350</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C25" s="1">
         <v>100</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2">
-        <f>(D13+D14+D15+D16+D17+D18+D19+D20+D21+D22)</f>
-        <v>9780</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2">
+        <f>(D16+D17+D18+D19+D20+D21+D22+D23+D24+D25)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
         <v>350</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D29" s="1">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
         <v>20</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C30" s="1">
         <v>100</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D30" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C31" s="1">
         <v>150</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D31" s="1">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2">
-        <f>(D26+D27+D28)</f>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2">
+        <f>(D29+D30+D31)</f>
         <v>12000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -972,36 +1102,242 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2">
+        <f>D36+D35+D38+D37</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2">
-        <f>D33+D32+D35+D34</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2">
-        <f>D8+D23+D29+D36</f>
-        <v>40780</v>
-      </c>
-    </row>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <f>(D39+D32+D26+D14+D11)</f>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14">
+        <v>7000</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14">
+        <v>6000</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14">
+        <v>7000</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14">
+        <v>20000</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14">
+        <v>7000</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="20">
+        <v>5500</v>
+      </c>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16">
+        <f>(C44+C45+C47+C46+C48+C49+C50+C51+C52)</f>
+        <v>72000</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18">
+        <f>(D41+C54)</f>
+        <v>121500</v>
+      </c>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="34">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
